--- a/template/AIX/blank_AIXチェックシート.xlsx
+++ b/template/AIX/blank_AIXチェックシート.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(AIX)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(AIX)" sheetId="6" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="7" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(AIX)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(AIX)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="216">
   <si>
     <t>共通設定</t>
   </si>
@@ -596,6 +597,439 @@
   </si>
   <si>
     <t>en1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>* AIX OSの構成情報を採取します。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>* .\template\AIX が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Linux, Windows 標準OSテンプレートと同様に事前に「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\AIX\AIXチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID AIX を指定します。</t>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID AIX を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>IPアドレス2</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>IPアドレス3</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>IPアドレス4</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>IPアドレス5</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ip2</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ip3</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ip4</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ip5</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>aix1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\AIX\config_aix.groovy</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>// AIX 接続情報</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.user      = 'guest'</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.password  = 'guest0001'</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\AIX\config_aix.groovy</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -675,7 +1109,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,8 +1146,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -822,6 +1262,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1480,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,9 +1842,762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:T77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="1029" width="8.75" customWidth="1"/>
+    <col min="1030" max="1031" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R31" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S31" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="T31" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="R32" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="S32" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="T32" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="25">
+        <v>1</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B34" s="25">
+        <v>2</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B35" s="25">
+        <v>3</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B36" s="25">
+        <v>4</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B37" s="25">
+        <v>5</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B38" s="25">
+        <v>6</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B39" s="25">
+        <v>7</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B40" s="25">
+        <v>8</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B41" s="25">
+        <v>9</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B42" s="25">
+        <v>10</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C48" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="36"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C52" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="39"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="42"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C54" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="42"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C55" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="42"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C56" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="45"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C62" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="36"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C68" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="36"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C73" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="36"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C77" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="J30:T30"/>
+  </mergeCells>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1888,7 +3243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M15"/>
   <sheetViews>
@@ -2175,7 +3530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2266,7 +3621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F28"/>
   <sheetViews>
@@ -2716,7 +4071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>

--- a/template/AIX/blank_AIXチェックシート.xlsx
+++ b/template/AIX/blank_AIXチェックシート.xlsx
@@ -1109,7 +1109,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,6 +1150,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1388,7 +1394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,21 +1482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1516,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,7 +1860,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T77"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1867,716 +1882,2001 @@
     <col min="1030" max="1031" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="43" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="43" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="43" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="43" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="43" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="43" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="43" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="43" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="43" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32" t="s">
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="43"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="33" t="s">
+      <c r="L31" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="33" t="s">
+      <c r="M31" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="33" t="s">
+      <c r="N31" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O31" s="33" t="s">
+      <c r="O31" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="33" t="s">
+      <c r="P31" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="Q31" s="33" t="s">
+      <c r="Q31" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="S31" s="33" t="s">
+      <c r="S31" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="T31" s="33" t="s">
+      <c r="T31" s="46" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="31" t="s">
+      <c r="U31" s="43"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="33" t="s">
+      <c r="M32" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="N32" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="33" t="s">
+      <c r="O32" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="33" t="s">
+      <c r="P32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Q32" s="33" t="s">
+      <c r="Q32" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="33" t="s">
+      <c r="S32" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="33" t="s">
+      <c r="T32" s="46" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="25">
+      <c r="U32" s="43"/>
+    </row>
+    <row r="33" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="43"/>
+      <c r="B33" s="47">
         <v>1</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B34" s="25">
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="43"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="43"/>
+      <c r="B34" s="47">
         <v>2</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B35" s="25">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="43"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="43"/>
+      <c r="B35" s="47">
         <v>3</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B36" s="25">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="43"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="43"/>
+      <c r="B36" s="47">
         <v>4</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B37" s="25">
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="43"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="43"/>
+      <c r="B37" s="47">
         <v>5</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B38" s="25">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="43"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="43"/>
+      <c r="B38" s="47">
         <v>6</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B39" s="25">
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="43"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="43"/>
+      <c r="B39" s="47">
         <v>7</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="25">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="43"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="43"/>
+      <c r="B40" s="47">
         <v>8</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B41" s="25">
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="43"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A41" s="43"/>
+      <c r="B41" s="47">
         <v>9</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B42" s="25">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="43"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A42" s="43"/>
+      <c r="B42" s="47">
         <v>10</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="43"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="43" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="C48" s="34" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="36"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C52" s="37" t="s">
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="42"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C54" s="40" t="s">
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="42"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C55" s="40" t="s">
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="42"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C56" s="43" t="s">
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="45"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" s="43" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C62" s="34" t="s">
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="36"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" s="43" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C68" s="34" t="s">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="36"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C73" s="34" t="s">
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="36"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C77" s="34" t="s">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="36"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2621,28 +3921,28 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="29"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>

--- a/template/AIX/blank_AIXチェックシート.xlsx
+++ b/template/AIX/blank_AIXチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="211">
   <si>
     <t>共通設定</t>
   </si>
@@ -300,6 +300,10 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
+    <t>aix1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
     <t>prtconf</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -600,15 +604,10 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
     <t>0. はじめに</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>* AIX OSの構成情報を採取します。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>* .\template\AIX が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -654,11 +653,248 @@
     <t>2. 検査シート編集</t>
   </si>
   <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>* AIX OSの構成情報を採取します。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>* .\template\AIX が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
     <t>「.\template\AIX\AIXチェックシート.xlsx」(本ファイル)を開きます。</t>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>検査するシナリオID AIX を指定します。</t>
@@ -668,67 +904,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>対象サーバ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>検査対象サーバのIPを入力します。</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>(オプション)  別シートの値の比較用テンプレートシートのID AIX を指定します。</t>
     <rPh sb="9" eb="10">
       <t>ベツ</t>
@@ -742,221 +917,10 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>(未使用)</t>
-    <rPh sb="1" eb="4">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>特定パスワード</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
-    <rPh sb="8" eb="10">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>OS設定項目</t>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>IPアドレス2</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>IPアドレス3</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>IPアドレス4</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>IPアドレス5</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ip2</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ip3</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ip4</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ip5</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>aix1</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>192.168.0.2</t>
-  </si>
-  <si>
     <t>3. 設定ファイル(config.groovy)編集</t>
   </si>
   <si>
     <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t>notepad++ .\template\AIX\config_aix.groovy</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>以下の各検査対象の接続情報を編集します。</t>
@@ -966,26 +930,10 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>// AIX 接続情報</t>
-  </si>
-  <si>
-    <t>account.AIX.Test.user      = 'guest'</t>
-  </si>
-  <si>
-    <t>account.AIX.Test.password  = 'guest0001'</t>
-  </si>
-  <si>
-    <t>account.AIX.Test.work_dir  = '/tmp/gradle_test'</t>
-  </si>
-  <si>
     <t>4. Getconfig インベントリ収集実行</t>
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>getconfig -c .\template\AIX\config_aix.groovy</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -1030,6 +978,37 @@
   </si>
   <si>
     <t>getconfig -u db</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>notepad++ .\template\AIX\config_aix.groovy</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\AIX\config_aix.groovy</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>// AIX 接続情報</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.user      = 'guest'</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.password  = 'guest0001'</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+  </si>
+  <si>
+    <t>AIX</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -1394,7 +1373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,28 +1497,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1860,9 +1851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1883,1259 +1876,1259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="A2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="41"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="T31" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="41"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="S32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="T32" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" s="41"/>
+    </row>
+    <row r="33" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="41"/>
+      <c r="B33" s="45">
+        <v>1</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
+      <c r="F33" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="41"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="41"/>
+      <c r="B34" s="45">
         <v>2</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="43"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="44" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="41"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="41"/>
+      <c r="B35" s="45">
         <v>3</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="41"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="41"/>
+      <c r="B36" s="45">
         <v>4</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="41"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="41"/>
+      <c r="B37" s="45">
         <v>5</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="41"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="41"/>
+      <c r="B38" s="45">
         <v>6</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="41"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="41"/>
+      <c r="B39" s="45">
         <v>7</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="41"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="41"/>
+      <c r="B40" s="45">
         <v>8</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="41"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A41" s="41"/>
+      <c r="B41" s="45">
         <v>9</v>
       </c>
-      <c r="K31" s="46" t="s">
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="41"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A42" s="41"/>
+      <c r="B42" s="45">
         <v>10</v>
       </c>
-      <c r="L31" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="R31" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="S31" s="46" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="41"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="T31" s="46" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="U31" s="43"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="M32" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="R32" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="S32" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="T32" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="U32" s="43"/>
-    </row>
-    <row r="33" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="47">
-        <v>1</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="43"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="47">
-        <v>2</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="43"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="47">
-        <v>3</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="43"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="47">
-        <v>4</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="43"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="47">
-        <v>5</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="43"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="47">
-        <v>6</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="43"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="47">
-        <v>7</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="43"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="47">
-        <v>8</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="43"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="47">
-        <v>9</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="43"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="47">
-        <v>10</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="43"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A44" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -3148,90 +3141,90 @@
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
       <c r="N48" s="31"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
@@ -3244,17 +3237,17 @@
       <c r="L52" s="33"/>
       <c r="M52" s="33"/>
       <c r="N52" s="34"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="35"/>
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
@@ -3267,19 +3260,19 @@
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
       <c r="N53" s="37"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
@@ -3292,19 +3285,19 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="37"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="35" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
@@ -3317,19 +3310,19 @@
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
       <c r="N55" s="37"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="39"/>
@@ -3342,138 +3335,138 @@
       <c r="L56" s="39"/>
       <c r="M56" s="39"/>
       <c r="N56" s="40"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A58" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
+      <c r="A58" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -3486,138 +3479,138 @@
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
       <c r="N62" s="31"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A64" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
+      <c r="A64" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
@@ -3630,115 +3623,115 @@
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
       <c r="N68" s="31"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="29" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30"/>
@@ -3751,90 +3744,90 @@
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
       <c r="N73" s="31"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="29" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30"/>
@@ -3847,36 +3840,49 @@
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="31"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="41"/>
+      <c r="T77" s="41"/>
+      <c r="U77" s="41"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3897,9 +3903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3921,28 +3925,28 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="41"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="51"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -4533,6 +4537,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$81:$C$82</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257267" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -4581,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>12</v>
@@ -4642,27 +4656,27 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
@@ -4979,17 +4993,17 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4997,108 +5011,108 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>80</v>
@@ -5111,7 +5125,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>62</v>
@@ -5121,199 +5135,199 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
       <c r="B26" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -5333,7 +5347,7 @@
         <v>61</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -5410,7 +5424,7 @@
         <v>80</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>80</v>
@@ -5439,16 +5453,16 @@
         <v>30</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -5456,10 +5470,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
@@ -5468,13 +5482,13 @@
         <v>32768</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I3" s="15">
         <v>863</v>
@@ -5490,13 +5504,13 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I4" s="15">
         <v>12287</v>

--- a/template/AIX/blank_AIXチェックシート.xlsx
+++ b/template/AIX/blank_AIXチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="215">
   <si>
     <t>共通設定</t>
   </si>
@@ -653,9 +653,6 @@
     <t>2. 検査シート編集</t>
   </si>
   <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
     <t>対象サーバ</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -977,38 +974,64 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
+    <t>notepad++ .\template\AIX\config_aix.groovy</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>// AIX 接続情報</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.user      = 'guest'</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.password  = 'guest0001'</t>
+  </si>
+  <si>
+    <t>account.AIX.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+  </si>
+  <si>
+    <t>AIX</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
     <t>getconfig -u db</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>notepad++ .\template\AIX\config_aix.groovy</t>
-    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
   </si>
   <si>
     <t>getconfig -c .\template\AIX\config_aix.groovy</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>// AIX 接続情報</t>
-  </si>
-  <si>
-    <t>account.AIX.Test.user      = 'guest'</t>
-  </si>
-  <si>
-    <t>account.AIX.Test.password  = 'guest0001'</t>
-  </si>
-  <si>
-    <t>account.AIX.Test.work_dir  = '/tmp/gradle_test'</t>
+    <t>getconfig -c .\template\AIX\config_aix.groovy -rp {Redmineプロジェクト名}</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目になります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>(*)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>選択プラットフォーム</t>
-  </si>
-  <si>
-    <t>AIX</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -1088,7 +1111,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,8 +1160,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1364,6 +1393,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1373,7 +1415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,6 +1573,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,11 +1899,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1949,7 +1995,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
       <c r="B4" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -1974,7 +2020,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -2214,7 +2260,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
       <c r="B15" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -2239,7 +2285,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
       <c r="B16" s="41" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -2286,12 +2332,14 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="41" t="s">
+        <v>214</v>
+      </c>
       <c r="C18" s="41" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -2313,12 +2361,14 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="B19" s="41" t="s">
+        <v>214</v>
+      </c>
       <c r="C19" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="41" t="s">
         <v>168</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>169</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -2340,12 +2390,14 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="41" t="s">
+        <v>214</v>
+      </c>
       <c r="C20" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>170</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>171</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -2367,12 +2419,14 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="B21" s="41" t="s">
+        <v>214</v>
+      </c>
       <c r="C21" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>172</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>173</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
@@ -2396,10 +2450,10 @@
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
@@ -2423,10 +2477,10 @@
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>175</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>176</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -2450,10 +2504,10 @@
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>177</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>178</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
@@ -2477,10 +2531,10 @@
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>180</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
@@ -2504,10 +2558,10 @@
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>181</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>182</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
@@ -2553,7 +2607,7 @@
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
       <c r="B28" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
@@ -3030,7 +3084,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -3079,7 +3133,7 @@
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="41"/>
       <c r="B46" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
@@ -3128,7 +3182,7 @@
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -3175,7 +3229,7 @@
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="41"/>
       <c r="D50" s="41"/>
@@ -3224,7 +3278,7 @@
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
@@ -3272,7 +3326,7 @@
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
@@ -3297,7 +3351,7 @@
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
@@ -3322,7 +3376,7 @@
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="39"/>
@@ -3368,7 +3422,7 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -3417,7 +3471,7 @@
     <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60" s="41"/>
       <c r="B60" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C60" s="41"/>
       <c r="D60" s="41"/>
@@ -3466,7 +3520,7 @@
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="29" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -3512,7 +3566,7 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -3561,7 +3615,7 @@
     <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
       <c r="B66" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
@@ -3610,7 +3664,7 @@
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
@@ -3657,7 +3711,7 @@
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70" s="41"/>
       <c r="B70" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -3682,7 +3736,7 @@
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71" s="41"/>
       <c r="B71" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" s="41"/>
       <c r="D71" s="41"/>
@@ -3731,7 +3785,7 @@
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30"/>
@@ -3778,7 +3832,7 @@
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
@@ -3826,20 +3880,20 @@
     <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
-      <c r="C77" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="31"/>
+      <c r="C77" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
       <c r="O77" s="41"/>
       <c r="P77" s="41"/>
       <c r="Q77" s="41"/>
@@ -3851,18 +3905,20 @@
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
+      <c r="C78" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="31"/>
       <c r="O78" s="41"/>
       <c r="P78" s="41"/>
       <c r="Q78" s="41"/>
@@ -3871,17 +3927,113 @@
       <c r="T78" s="41"/>
       <c r="U78" s="41"/>
     </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="41"/>
+    </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
-        <v>208</v>
-      </c>
-      <c r="C80" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" t="s">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="53" t="s">
         <v>210</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="41"/>
+      <c r="U80" s="41"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="41"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="41"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4537,16 +4689,6 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>利用手順!$C$81:$C$82</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B23</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257267" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>

--- a/template/AIX/blank_AIXチェックシート.xlsx
+++ b/template/AIX/blank_AIXチェックシート.xlsx
@@ -1643,8 +1643,7 @@
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="16" width="8.625" customWidth="1"/>
     <col min="17" max="20" width="10.5" customWidth="1"/>
-    <col min="21" max="1029" width="8.75" customWidth="1"/>
-    <col min="1030" max="1031" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -3805,8 +3804,6 @@
     <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="1028" width="8.75" customWidth="1"/>
-    <col min="1029" max="1030" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -4449,7 +4446,6 @@
     <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="35.25" customWidth="1"/>
     <col min="14" max="14" width="28.875" customWidth="1"/>
-    <col min="15" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -4753,9 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4855,7 +4849,6 @@
     <col min="5" max="5" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="1024" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -5313,9 +5306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5328,7 +5319,6 @@
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="1012" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
